--- a/docs/shr-core-Procedure.xlsx
+++ b/docs/shr-core-Procedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="346">
   <si>
     <t>Path</t>
   </si>
@@ -426,6 +426,17 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>reasoncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+  </si>
+  <si>
     <t>reasonreference</t>
   </si>
   <si>
@@ -670,7 +681,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -685,64 +696,24 @@
     <t>Procedure.bodySite.extension</t>
   </si>
   <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>Procedure.bodySite.coding</t>
@@ -787,7 +758,11 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>Procedure.reasonCodeableConcept</t>
+    <t>Procedure.reason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}</t>
   </si>
   <si>
     <t>Reason procedure performed</t>
@@ -803,9 +778,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>Procedure.reason[x]</t>
   </si>
   <si>
     <t>.reasonCode</t>
@@ -1271,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM66"/>
+  <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1304,7 +1276,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.0234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3143,7 +3115,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3249,7 +3221,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3342,9 +3314,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3367,9 +3341,7 @@
       <c r="J20" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>59</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
         <v>139</v>
       </c>
@@ -3395,7 +3367,7 @@
         <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>39</v>
@@ -3422,13 +3394,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3437,7 +3409,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3448,7 +3420,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3459,7 +3431,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3471,13 +3443,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3528,13 +3500,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3543,7 +3515,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3554,7 +3526,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3562,10 +3534,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3577,13 +3549,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3592,7 +3564,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>39</v>
@@ -3634,13 +3606,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3649,7 +3621,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3660,7 +3632,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3683,13 +3655,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3698,7 +3670,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>39</v>
@@ -3743,7 +3715,7 @@
         <v>152</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>48</v>
@@ -3766,20 +3738,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3793,9 +3763,11 @@
       <c r="J24" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3819,7 +3791,7 @@
         <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>39</v>
@@ -3846,13 +3818,13 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3861,7 +3833,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3872,11 +3844,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3889,23 +3863,19 @@
         <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K25" t="s" s="2">
         <v>157</v>
       </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3954,7 +3924,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3969,7 +3939,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3984,7 +3954,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3997,24 +3967,24 @@
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
       </c>
@@ -4077,18 +4047,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>166</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4096,31 +4066,33 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4168,33 +4140,33 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4211,19 +4183,19 @@
         <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4250,11 +4222,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4272,7 +4246,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>48</v>
@@ -4287,18 +4261,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4306,28 +4280,28 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4354,13 +4328,11 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4378,10 +4350,10 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>48</v>
@@ -4393,7 +4365,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4402,9 +4374,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4412,28 +4384,28 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4460,11 +4432,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4482,10 +4456,10 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>48</v>
@@ -4497,18 +4471,18 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4516,33 +4490,33 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
@@ -4564,13 +4538,11 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4588,10 +4560,10 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>48</v>
@@ -4603,18 +4575,18 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4631,24 +4603,24 @@
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -4670,13 +4642,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4694,22 +4666,22 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4720,7 +4692,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4731,7 +4703,7 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4740,16 +4712,16 @@
         <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4776,11 +4748,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4798,7 +4772,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4807,24 +4781,24 @@
         <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4835,7 +4809,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4844,16 +4818,16 @@
         <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4877,16 +4851,14 @@
         <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4903,11 +4875,15 @@
       <c r="AD34" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4915,29 +4891,29 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>39</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4949,17 +4925,15 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4996,14 +4970,16 @@
         <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
@@ -5028,13 +5004,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5053,13 +5027,17 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5096,26 +5074,20 @@
         <v>39</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5123,7 +5095,7 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -5134,7 +5106,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>217</v>
@@ -5214,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5240,7 +5212,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>220</v>
@@ -5320,7 +5292,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5346,11 +5318,9 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B39" t="s" s="2">
         <v>223</v>
       </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5368,17 +5338,23 @@
         <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K39" s="2"/>
       <c r="L39" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="M39" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5425,15 +5401,11 @@
       <c r="AD39" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5441,22 +5413,20 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5465,7 +5435,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5474,17 +5444,23 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="L40" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5531,15 +5507,11 @@
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5547,22 +5519,20 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>39</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5571,7 +5541,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5580,16 +5550,20 @@
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="L41" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5611,16 +5585,16 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>39</v>
@@ -5638,13 +5612,13 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -5653,7 +5627,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5664,7 +5638,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5687,20 +5661,16 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5721,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>39</v>
@@ -5747,11 +5717,15 @@
       <c r="AD42" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5759,18 +5733,18 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>238</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5790,23 +5764,19 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5827,7 +5797,7 @@
         <v>39</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>39</v>
@@ -5853,11 +5823,15 @@
       <c r="AD43" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5865,29 +5839,29 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5896,19 +5870,19 @@
         <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5934,37 +5908,37 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -5973,7 +5947,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -5984,11 +5958,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6001,21 +5975,23 @@
         <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6064,7 +6040,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6079,7 +6055,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6090,7 +6066,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6110,16 +6086,16 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6170,7 +6146,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6185,29 +6161,29 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>39</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6216,20 +6192,18 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6254,13 +6228,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6278,13 +6252,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6293,51 +6267,49 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>39</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6386,13 +6358,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6401,18 +6373,18 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6435,13 +6407,13 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6492,7 +6464,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6507,18 +6479,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6541,16 +6513,18 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6574,13 +6548,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6598,7 +6572,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6613,18 +6587,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>277</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6632,30 +6606,32 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6680,13 +6656,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -6704,7 +6680,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6719,18 +6695,18 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>284</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6741,7 +6717,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6750,18 +6726,20 @@
         <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -6810,13 +6788,13 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -6825,18 +6803,18 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>291</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6847,7 +6825,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6856,21 +6834,21 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
       </c>
@@ -6894,13 +6872,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6918,13 +6896,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -6933,10 +6911,10 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -6944,7 +6922,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6955,7 +6933,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -6964,20 +6942,18 @@
         <v>39</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -7005,10 +6981,10 @@
         <v>94</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
@@ -7026,13 +7002,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7041,7 +7017,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7052,7 +7028,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7063,7 +7039,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -7075,17 +7051,15 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7134,13 +7108,13 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -7149,7 +7123,7 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7160,7 +7134,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7183,17 +7157,15 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -7218,13 +7190,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7242,7 +7214,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7257,18 +7229,18 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>39</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7291,13 +7263,13 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7324,13 +7296,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7348,7 +7320,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7363,7 +7335,7 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
@@ -7374,7 +7346,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7397,13 +7369,13 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7454,7 +7426,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7469,7 +7441,7 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -7480,11 +7452,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7503,15 +7475,17 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>329</v>
+        <v>64</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7560,7 +7534,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7575,22 +7549,22 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>333</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7603,21 +7577,23 @@
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -7666,7 +7642,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7681,7 +7657,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -7692,7 +7668,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7715,13 +7691,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>59</v>
+        <v>332</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7748,13 +7724,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>39</v>
+        <v>334</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -7772,7 +7748,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7787,7 +7763,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7798,18 +7774,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>39</v>
@@ -7821,17 +7797,15 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>64</v>
+        <v>337</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -7880,13 +7854,13 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -7895,7 +7869,7 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
@@ -7906,11 +7880,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7923,24 +7897,26 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>157</v>
+        <v>342</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
       </c>
@@ -7988,7 +7964,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8003,339 +7979,17 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL66" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL66">
+  <autoFilter ref="A1:AL63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8345,7 +7999,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
